--- a/DeathHand2D/Assets/Resources/SkillTable.xlsx
+++ b/DeathHand2D/Assets/Resources/SkillTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\GameProject\OnePunchCone\DeathHand2D\Assets\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A819A2E-0D4E-4BA9-8A6A-55BFD8AAFE5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD4460B1-1F75-4F72-9161-A1BDE0B144E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{84D5EB44-B505-4882-AF98-2F2755CF33CF}"/>
   </bookViews>
@@ -3731,7 +3731,7 @@
   <dimension ref="A1:P4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>

--- a/DeathHand2D/Assets/Resources/SkillTable.xlsx
+++ b/DeathHand2D/Assets/Resources/SkillTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\GameProject\OnePunchCone\DeathHand2D\Assets\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD4460B1-1F75-4F72-9161-A1BDE0B144E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F654D188-ED60-4967-A436-FC15DCD8BDE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{84D5EB44-B505-4882-AF98-2F2755CF33CF}"/>
+    <workbookView xWindow="9945" yWindow="2295" windowWidth="18960" windowHeight="12330" xr2:uid="{84D5EB44-B505-4882-AF98-2F2755CF33CF}"/>
   </bookViews>
   <sheets>
     <sheet name="SKILL_MASTER" sheetId="1" r:id="rId1"/>
@@ -3730,9 +3730,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AAE985E-90EF-4605-A596-233EC1DF0080}">
   <dimension ref="A1:P4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>

--- a/DeathHand2D/Assets/Resources/SkillTable.xlsx
+++ b/DeathHand2D/Assets/Resources/SkillTable.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\GameProject\OnePunchCone\DeathHand2D\Assets\Resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\929ab\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F654D188-ED60-4967-A436-FC15DCD8BDE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{251E78BE-60A2-4383-A9D2-D2356F04778A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9945" yWindow="2295" windowWidth="18960" windowHeight="12330" xr2:uid="{84D5EB44-B505-4882-AF98-2F2755CF33CF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{84D5EB44-B505-4882-AF98-2F2755CF33CF}"/>
   </bookViews>
   <sheets>
-    <sheet name="SKILL_MASTER" sheetId="1" r:id="rId1"/>
+    <sheet name="ATTACK_MASTER" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -50,7 +50,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>SKILL_TYPE:</t>
+          <t>ATTACK_TYPE:</t>
         </r>
         <r>
           <rPr>
@@ -72,7 +72,7 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
-          <t>스킬의</t>
+          <t>공격의</t>
         </r>
         <r>
           <rPr>
@@ -130,6 +130,45 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
+          <t>기본</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>공격</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+2 : </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
           <t>일반</t>
         </r>
         <r>
@@ -159,7 +198,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">2 : </t>
+          <t xml:space="preserve">3 : </t>
         </r>
         <r>
           <rPr>
@@ -224,7 +263,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>SKILL_Clear</t>
+          <t>ATTACK_Clear</t>
         </r>
         <r>
           <rPr>
@@ -234,7 +273,7 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-SKILL_MASTER </t>
+ATTACK_MASTER </t>
         </r>
         <r>
           <rPr>
@@ -253,7 +292,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve"> SKILL_TYPE </t>
+          <t xml:space="preserve"> ATTACK_TYPE </t>
         </r>
         <r>
           <rPr>
@@ -272,7 +311,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve"> 2</t>
+          <t xml:space="preserve"> 3</t>
         </r>
         <r>
           <rPr>
@@ -464,7 +503,7 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">)
-SKILL_MASTER </t>
+ATTACK_MASTER </t>
         </r>
         <r>
           <rPr>
@@ -483,7 +522,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve"> SKILL_CODE</t>
+          <t xml:space="preserve"> ATTACK_CODE</t>
         </r>
         <r>
           <rPr>
@@ -546,7 +585,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>SKILL_Delay</t>
+          <t>ATTACK_Delay</t>
         </r>
         <r>
           <rPr>
@@ -710,7 +749,7 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-100=1</t>
+1000=1</t>
         </r>
         <r>
           <rPr>
@@ -734,7 +773,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>SKILL_DISTANCE_X</t>
+          <t>ATTACK_DISTANCE_X</t>
         </r>
         <r>
           <rPr>
@@ -887,16 +926,36 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
-          <t>범위의</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
+          <t>인스펙터</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> Size</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>의</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 
+</t>
         </r>
         <r>
           <rPr>
@@ -955,7 +1014,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>100=1M</t>
+          <t>1000=1</t>
         </r>
       </text>
     </comment>
@@ -969,7 +1028,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">SKILL_DISTANCE_Y
+          <t xml:space="preserve">ATTACK_DISTANCE_Y
 </t>
         </r>
         <r>
@@ -1113,16 +1172,36 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
-          <t>범위의</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
+          <t>인스펙터</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> Size</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>의</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 
+</t>
         </r>
         <r>
           <rPr>
@@ -1160,8 +1239,28 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>.
-100=1M</t>
+          <t xml:space="preserve">.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>1000=1</t>
         </r>
       </text>
     </comment>
@@ -1175,7 +1274,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>SKILL_HIT</t>
+          <t>ATTACK_HIT</t>
         </r>
         <r>
           <rPr>
@@ -1195,7 +1294,102 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
-          <t>스킬의</t>
+          <t>한</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>번의</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>공격으로</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>적에게</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>데미지를</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>입히는</t>
         </r>
         <r>
           <rPr>
@@ -1276,7 +1470,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>SKILL_MIN_DAMAGE</t>
+          <t>ATTACK_MIN_DAMAGE</t>
         </r>
         <r>
           <rPr>
@@ -1511,16 +1705,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>SKILL_DAMAGE</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">:
+          <t xml:space="preserve">ATTACK_MAX_DAMAGE:
 </t>
         </r>
         <r>
@@ -1711,27 +1896,8 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>.</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">1=1
+          <t xml:space="preserve">.
+1=1
 </t>
         </r>
       </text>
@@ -1746,7 +1912,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>SKILL_C_TIME</t>
+          <t>ATTACK_C_TIME</t>
         </r>
         <r>
           <rPr>
@@ -1766,7 +1932,7 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
-          <t>스킬을</t>
+          <t>공격을</t>
         </r>
         <r>
           <rPr>
@@ -1871,7 +2037,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>100=1</t>
+          <t>1000=1</t>
         </r>
         <r>
           <rPr>
@@ -1895,7 +2061,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>SKILL_ICON:</t>
+          <t>ATTACK_ICON:</t>
         </r>
         <r>
           <rPr>
@@ -1934,7 +2100,7 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
-          <t>스킬</t>
+          <t>공격</t>
         </r>
         <r>
           <rPr>
@@ -2164,7 +2330,17 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
-          <t>예정</t>
+          <t>예정
+해당없음</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> : 0</t>
         </r>
       </text>
     </comment>
@@ -2178,7 +2354,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>SKILL_ATTACK_EFFECT:</t>
+          <t>ATTACK_EFFECT:</t>
         </r>
         <r>
           <rPr>
@@ -2198,7 +2374,7 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
-          <t>스킬</t>
+          <t>공격</t>
         </r>
         <r>
           <rPr>
@@ -2365,7 +2541,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">SKILL_Ani_01
+          <t xml:space="preserve">ATTACK_Ani_01
 </t>
         </r>
         <r>
@@ -2386,26 +2562,7 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
-          <t>스킬</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>사용</t>
+          <t>공격</t>
         </r>
         <r>
           <rPr>
@@ -2510,7 +2667,7 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">.
-SKILL_SPEED </t>
+ATTACK_Delay </t>
         </r>
         <r>
           <rPr>
@@ -2772,7 +2929,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>SKILL_Ani_02</t>
+          <t>ATTACK_Ani_02</t>
         </r>
         <r>
           <rPr>
@@ -2782,7 +2939,7 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-SKILL_Ani_01</t>
+ATTACK_Ani_01</t>
         </r>
         <r>
           <rPr>
@@ -2897,7 +3054,7 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">.
-SKILL_SPEED </t>
+ATTACK_DELAY </t>
         </r>
         <r>
           <rPr>
@@ -3064,7 +3221,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">SKILL_Ani_03
+          <t xml:space="preserve">ATTACK_Ani_03
 </t>
         </r>
         <r>
@@ -3075,7 +3232,7 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-SKILL_Ani_02</t>
+ATTACK_Ani_02</t>
         </r>
         <r>
           <rPr>
@@ -3218,9 +3375,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
-    <t>SKILL_CODE</t>
+    <t>NAME(참고용)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -3236,62 +3393,67 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>SKILL_TYPE</t>
+    <t>대나무베기</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>SKILL_C_TIME</t>
+    <t>ATTACK_TYPE</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>SKILL_Clear</t>
+    <t>ATTACK_CODE</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>SKILL_HIT</t>
+    <t>ATTACK_Clear</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>SKILL_ICON</t>
+    <t>ATTACK_DELAY</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>SKILL_Ani_01</t>
+    <t>ATTACK_DISTANCE_X</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>SKILL_Ani_02</t>
+    <t>ATTACK_DISTANCE_Y</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>SKILL_Ani_03</t>
-  </si>
-  <si>
-    <t>SKILL_ATTACK_EFFECT</t>
+    <t>ATTACK_HIT</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>SKILL_DELAY</t>
+    <t>ATTACK_MIN_DAMAGE</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>SKILL_MIN_DAMAGE</t>
+    <t>ATTACK_MAX_DAMAGE</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>SKILL_MAX_DAMAGE</t>
+    <t>ATTACK_C_TIME</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>SKILL_DISTANCE_X</t>
+    <t>ATTACK_ICON</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>SKILL_DISTANCE_Y</t>
+    <t>ATTACK_ATTACK_EFFECT</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>NAME</t>
+    <t>ATTACK_Ani_01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ATTACK_Ani_02</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ATTACK_Ani_03</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -3728,20 +3890,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AAE985E-90EF-4605-A596-233EC1DF0080}">
-  <dimension ref="A1:P4"/>
+  <dimension ref="A1:P5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.875" customWidth="1"/>
     <col min="2" max="2" width="15.875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.75" style="5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.75" customWidth="1"/>
-    <col min="5" max="5" width="12.25" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="16.875" customWidth="1"/>
-    <col min="9" max="9" width="18.125" customWidth="1"/>
-    <col min="10" max="10" width="19.25" customWidth="1"/>
+    <col min="5" max="5" width="15.5" customWidth="1"/>
+    <col min="6" max="6" width="19.25" customWidth="1"/>
+    <col min="7" max="7" width="21.125" customWidth="1"/>
+    <col min="8" max="8" width="16.875" customWidth="1"/>
+    <col min="9" max="9" width="21.25" customWidth="1"/>
+    <col min="10" max="10" width="22.375" customWidth="1"/>
     <col min="11" max="11" width="15.125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="18.75" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="22.75" bestFit="1" customWidth="1"/>
@@ -3752,60 +3918,60 @@
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="O1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="P1" s="3" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="4">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C2" s="5">
         <v>1</v>
@@ -3817,10 +3983,10 @@
         <v>0</v>
       </c>
       <c r="F2" s="5">
-        <v>375</v>
+        <v>500</v>
       </c>
       <c r="G2" s="5">
-        <v>138</v>
+        <v>500</v>
       </c>
       <c r="H2" s="5">
         <v>1</v>
@@ -3832,7 +3998,7 @@
         <v>300</v>
       </c>
       <c r="K2" s="5">
-        <v>1000</v>
+        <v>10000</v>
       </c>
       <c r="L2" s="5">
         <v>0</v>
@@ -3852,10 +4018,10 @@
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="4">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3" s="5">
         <v>2</v>
@@ -3864,25 +4030,25 @@
         <v>0</v>
       </c>
       <c r="E3" s="5">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="F3" s="5">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="G3" s="5">
-        <v>138</v>
+        <v>500</v>
       </c>
       <c r="H3" s="5">
         <v>1</v>
       </c>
       <c r="I3" s="5">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J3" s="5">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="K3" s="5">
-        <v>1500</v>
+        <v>10000</v>
       </c>
       <c r="L3" s="5">
         <v>0</v>
@@ -3902,37 +4068,37 @@
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="4">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="B4" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="5">
         <v>3</v>
       </c>
-      <c r="C4" s="5">
-        <v>2</v>
-      </c>
       <c r="D4" s="5">
-        <v>111</v>
+        <v>0</v>
       </c>
       <c r="E4" s="5">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="F4" s="5">
-        <v>180</v>
+        <v>2000</v>
       </c>
       <c r="G4" s="5">
-        <v>138</v>
+        <v>500</v>
       </c>
       <c r="H4" s="5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I4" s="5">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="J4" s="5">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="K4" s="5">
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="L4" s="5">
         <v>0</v>
@@ -3947,13 +4113,63 @@
         <v>0</v>
       </c>
       <c r="P4" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="A5" s="4">
+        <v>103</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="5">
+        <v>3</v>
+      </c>
+      <c r="D5" s="5">
+        <v>111</v>
+      </c>
+      <c r="E5" s="5">
+        <v>0</v>
+      </c>
+      <c r="F5" s="5">
+        <v>500</v>
+      </c>
+      <c r="G5" s="5">
+        <v>500</v>
+      </c>
+      <c r="H5" s="5">
+        <v>4</v>
+      </c>
+      <c r="I5" s="5">
+        <v>60</v>
+      </c>
+      <c r="J5" s="5">
+        <v>100</v>
+      </c>
+      <c r="K5" s="5">
+        <v>0</v>
+      </c>
+      <c r="L5" s="5">
+        <v>0</v>
+      </c>
+      <c r="M5" s="5">
+        <v>0</v>
+      </c>
+      <c r="N5" s="5">
+        <v>0</v>
+      </c>
+      <c r="O5" s="5">
+        <v>0</v>
+      </c>
+      <c r="P5" s="5">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>